--- a/Assets/06.Table/ClosedTrainingTable.xlsx
+++ b/Assets/06.Table/ClosedTrainingTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724B7551-A6C3-48B3-BA3D-D4B16DA70C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1572EF8-63F8-4B5F-9C35-B937C7A87C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="ClosedTrainingTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>Id</t>
   </si>
@@ -208,6 +208,22 @@
   </si>
   <si>
     <t>1000명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000월</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -595,11 +611,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1451,7 +1467,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="2">
-        <f t="shared" ref="B50:B53" si="0">B49*10</f>
+        <f t="shared" ref="B50:B57" si="0">B49*10</f>
         <v>1.0000000000000002E+148</v>
       </c>
       <c r="C50" t="s">
@@ -1516,6 +1532,78 @@
       </c>
       <c r="E53" s="1">
         <v>0.76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000002E+152</v>
+      </c>
+      <c r="C54" t="s">
+        <v>57</v>
+      </c>
+      <c r="D54" s="1">
+        <v>83</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000002E+153</v>
+      </c>
+      <c r="C55" t="s">
+        <v>58</v>
+      </c>
+      <c r="D55" s="1">
+        <v>83</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000002E+154</v>
+      </c>
+      <c r="C56" t="s">
+        <v>59</v>
+      </c>
+      <c r="D56" s="1">
+        <v>83</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000001E+155</v>
+      </c>
+      <c r="C57" t="s">
+        <v>60</v>
+      </c>
+      <c r="D57" s="1">
+        <v>83</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0.88</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/ClosedTrainingTable.xlsx
+++ b/Assets/06.Table/ClosedTrainingTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1572EF8-63F8-4B5F-9C35-B937C7A87C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925FA048-B51B-4E5F-A065-75075EBA037C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="ClosedTrainingTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>Id</t>
   </si>
@@ -224,6 +224,38 @@
   </si>
   <si>
     <t>1000월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000단</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -611,11 +643,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B58" sqref="B58"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1467,7 +1499,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="2">
-        <f t="shared" ref="B50:B57" si="0">B49*10</f>
+        <f t="shared" ref="B50:B65" si="0">B49*10</f>
         <v>1.0000000000000002E+148</v>
       </c>
       <c r="C50" t="s">
@@ -1604,6 +1636,150 @@
       </c>
       <c r="E57" s="1">
         <v>0.88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000002E+156</v>
+      </c>
+      <c r="C58" t="s">
+        <v>61</v>
+      </c>
+      <c r="D58" s="1">
+        <v>83</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000001E+157</v>
+      </c>
+      <c r="C59" t="s">
+        <v>62</v>
+      </c>
+      <c r="D59" s="1">
+        <v>83</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000001E+158</v>
+      </c>
+      <c r="C60" t="s">
+        <v>63</v>
+      </c>
+      <c r="D60" s="1">
+        <v>83</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0.96999999999999897</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000001E+159</v>
+      </c>
+      <c r="C61" t="s">
+        <v>64</v>
+      </c>
+      <c r="D61" s="1">
+        <v>83</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0.999999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000002E+160</v>
+      </c>
+      <c r="C62" t="s">
+        <v>65</v>
+      </c>
+      <c r="D62" s="1">
+        <v>83</v>
+      </c>
+      <c r="E62" s="1">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000002E+161</v>
+      </c>
+      <c r="C63" t="s">
+        <v>66</v>
+      </c>
+      <c r="D63" s="1">
+        <v>83</v>
+      </c>
+      <c r="E63" s="1">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000001E+162</v>
+      </c>
+      <c r="C64" t="s">
+        <v>67</v>
+      </c>
+      <c r="D64" s="1">
+        <v>83</v>
+      </c>
+      <c r="E64" s="1">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000001E+163</v>
+      </c>
+      <c r="C65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" s="1">
+        <v>83</v>
+      </c>
+      <c r="E65" s="1">
+        <v>1.1200000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/ClosedTrainingTable.xlsx
+++ b/Assets/06.Table/ClosedTrainingTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925FA048-B51B-4E5F-A065-75075EBA037C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807638ED-32B3-494C-9FF6-D93D2EED13EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>Id</t>
   </si>
@@ -256,6 +256,22 @@
   </si>
   <si>
     <t>1000단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000절</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -643,11 +659,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C55" sqref="C55"/>
+      <selection pane="bottomLeft" activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1499,7 +1515,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="2">
-        <f t="shared" ref="B50:B65" si="0">B49*10</f>
+        <f t="shared" ref="B50:B69" si="0">B49*10</f>
         <v>1.0000000000000002E+148</v>
       </c>
       <c r="C50" t="s">
@@ -1780,6 +1796,78 @@
       </c>
       <c r="E65" s="1">
         <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000001E+164</v>
+      </c>
+      <c r="C66" t="s">
+        <v>69</v>
+      </c>
+      <c r="D66" s="1">
+        <v>83</v>
+      </c>
+      <c r="E66" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000001E+165</v>
+      </c>
+      <c r="C67" t="s">
+        <v>70</v>
+      </c>
+      <c r="D67" s="1">
+        <v>83</v>
+      </c>
+      <c r="E67" s="1">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000001E+166</v>
+      </c>
+      <c r="C68" t="s">
+        <v>71</v>
+      </c>
+      <c r="D68" s="1">
+        <v>83</v>
+      </c>
+      <c r="E68" s="1">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69" s="2">
+        <f t="shared" si="0"/>
+        <v>1E+167</v>
+      </c>
+      <c r="C69" t="s">
+        <v>72</v>
+      </c>
+      <c r="D69" s="1">
+        <v>83</v>
+      </c>
+      <c r="E69" s="1">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/ClosedTrainingTable.xlsx
+++ b/Assets/06.Table/ClosedTrainingTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807638ED-32B3-494C-9FF6-D93D2EED13EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC419854-299D-4D58-A538-CC917EBA5253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="ClosedTrainingTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>Id</t>
   </si>
@@ -272,6 +272,22 @@
   </si>
   <si>
     <t>1000절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000격</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -659,11 +675,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C70" sqref="C70"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1515,7 +1531,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="2">
-        <f t="shared" ref="B50:B69" si="0">B49*10</f>
+        <f t="shared" ref="B50:B73" si="0">B49*10</f>
         <v>1.0000000000000002E+148</v>
       </c>
       <c r="C50" t="s">
@@ -1868,6 +1884,78 @@
       </c>
       <c r="E69" s="1">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70" s="2">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999993E+167</v>
+      </c>
+      <c r="C70" t="s">
+        <v>73</v>
+      </c>
+      <c r="D70" s="1">
+        <v>83</v>
+      </c>
+      <c r="E70" s="1">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71" s="2">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999993E+168</v>
+      </c>
+      <c r="C71" t="s">
+        <v>74</v>
+      </c>
+      <c r="D71" s="1">
+        <v>83</v>
+      </c>
+      <c r="E71" s="1">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72" s="2">
+        <f t="shared" si="0"/>
+        <v>9.999999999999999E+169</v>
+      </c>
+      <c r="C72" t="s">
+        <v>75</v>
+      </c>
+      <c r="D72" s="1">
+        <v>83</v>
+      </c>
+      <c r="E72" s="1">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73" s="2">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999995E+170</v>
+      </c>
+      <c r="C73" t="s">
+        <v>76</v>
+      </c>
+      <c r="D73" s="1">
+        <v>83</v>
+      </c>
+      <c r="E73" s="1">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/ClosedTrainingTable.xlsx
+++ b/Assets/06.Table/ClosedTrainingTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC419854-299D-4D58-A538-CC917EBA5253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B020B8-072F-43DD-9E08-137916578C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="ClosedTrainingTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>Id</t>
   </si>
@@ -288,6 +288,38 @@
   </si>
   <si>
     <t>1000격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000공</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -675,10 +707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
@@ -1531,7 +1563,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="2">
-        <f t="shared" ref="B50:B73" si="0">B49*10</f>
+        <f t="shared" ref="B50:B81" si="0">B49*10</f>
         <v>1.0000000000000002E+148</v>
       </c>
       <c r="C50" t="s">
@@ -1956,6 +1988,150 @@
       </c>
       <c r="E73" s="1">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74" s="2">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999991E+171</v>
+      </c>
+      <c r="C74" t="s">
+        <v>77</v>
+      </c>
+      <c r="D74" s="1">
+        <v>83</v>
+      </c>
+      <c r="E74" s="1">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75" s="2">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999988E+172</v>
+      </c>
+      <c r="C75" t="s">
+        <v>78</v>
+      </c>
+      <c r="D75" s="1">
+        <v>83</v>
+      </c>
+      <c r="E75" s="1">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76" s="2">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999985E+173</v>
+      </c>
+      <c r="C76" t="s">
+        <v>79</v>
+      </c>
+      <c r="D76" s="1">
+        <v>83</v>
+      </c>
+      <c r="E76" s="1">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77" s="2">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999994E+174</v>
+      </c>
+      <c r="C77" t="s">
+        <v>80</v>
+      </c>
+      <c r="D77" s="1">
+        <v>83</v>
+      </c>
+      <c r="E77" s="1">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78" s="2">
+        <f t="shared" si="0"/>
+        <v>1E+176</v>
+      </c>
+      <c r="C78" t="s">
+        <v>81</v>
+      </c>
+      <c r="D78" s="1">
+        <v>83</v>
+      </c>
+      <c r="E78" s="1">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79" s="2">
+        <f t="shared" si="0"/>
+        <v>1E+177</v>
+      </c>
+      <c r="C79" t="s">
+        <v>82</v>
+      </c>
+      <c r="D79" s="1">
+        <v>83</v>
+      </c>
+      <c r="E79" s="1">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000001E+178</v>
+      </c>
+      <c r="C80" t="s">
+        <v>83</v>
+      </c>
+      <c r="D80" s="1">
+        <v>83</v>
+      </c>
+      <c r="E80" s="1">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000001E+179</v>
+      </c>
+      <c r="C81" t="s">
+        <v>84</v>
+      </c>
+      <c r="D81" s="1">
+        <v>83</v>
+      </c>
+      <c r="E81" s="1">
+        <v>1.6</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/ClosedTrainingTable.xlsx
+++ b/Assets/06.Table/ClosedTrainingTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B020B8-072F-43DD-9E08-137916578C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5936D71F-341A-4BC2-AE93-C03CCF6423DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>Id</t>
   </si>
@@ -320,6 +320,38 @@
   </si>
   <si>
     <t>1000공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1채</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10채</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100채</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000채</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000연</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -707,11 +739,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C76" sqref="C76"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1563,7 +1595,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="2">
-        <f t="shared" ref="B50:B81" si="0">B49*10</f>
+        <f t="shared" ref="B50:B89" si="0">B49*10</f>
         <v>1.0000000000000002E+148</v>
       </c>
       <c r="C50" t="s">
@@ -2132,6 +2164,150 @@
       </c>
       <c r="E81" s="1">
         <v>1.6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000001E+180</v>
+      </c>
+      <c r="C82" t="s">
+        <v>85</v>
+      </c>
+      <c r="D82" s="1">
+        <v>83</v>
+      </c>
+      <c r="E82" s="1">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000001E+181</v>
+      </c>
+      <c r="C83" t="s">
+        <v>86</v>
+      </c>
+      <c r="D83" s="1">
+        <v>83</v>
+      </c>
+      <c r="E83" s="1">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000001E+182</v>
+      </c>
+      <c r="C84" t="s">
+        <v>87</v>
+      </c>
+      <c r="D84" s="1">
+        <v>83</v>
+      </c>
+      <c r="E84" s="1">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000001E+183</v>
+      </c>
+      <c r="C85" t="s">
+        <v>88</v>
+      </c>
+      <c r="D85" s="1">
+        <v>83</v>
+      </c>
+      <c r="E85" s="1">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86" s="2">
+        <f t="shared" si="0"/>
+        <v>1E+184</v>
+      </c>
+      <c r="C86" t="s">
+        <v>89</v>
+      </c>
+      <c r="D86" s="1">
+        <v>83</v>
+      </c>
+      <c r="E86" s="1">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87" s="2">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999998E+184</v>
+      </c>
+      <c r="C87" t="s">
+        <v>90</v>
+      </c>
+      <c r="D87" s="1">
+        <v>83</v>
+      </c>
+      <c r="E87" s="1">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88" s="2">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999998E+185</v>
+      </c>
+      <c r="C88" t="s">
+        <v>91</v>
+      </c>
+      <c r="D88" s="1">
+        <v>83</v>
+      </c>
+      <c r="E88" s="1">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89" s="2">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999991E+186</v>
+      </c>
+      <c r="C89" t="s">
+        <v>92</v>
+      </c>
+      <c r="D89" s="1">
+        <v>83</v>
+      </c>
+      <c r="E89" s="1">
+        <v>1.84</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/ClosedTrainingTable.xlsx
+++ b/Assets/06.Table/ClosedTrainingTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5936D71F-341A-4BC2-AE93-C03CCF6423DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF35142-F67D-41F3-991A-739E2F4E0EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>Id</t>
   </si>
@@ -339,19 +339,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000연</t>
+    <t>1피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000동</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -739,11 +755,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C84" sqref="C84"/>
+      <selection pane="bottomLeft" activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1595,7 +1611,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="2">
-        <f t="shared" ref="B50:B89" si="0">B49*10</f>
+        <f t="shared" ref="B50:B93" si="0">B49*10</f>
         <v>1.0000000000000002E+148</v>
       </c>
       <c r="C50" t="s">
@@ -2308,6 +2324,78 @@
       </c>
       <c r="E89" s="1">
         <v>1.84</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90" s="2">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999987E+187</v>
+      </c>
+      <c r="C90" t="s">
+        <v>93</v>
+      </c>
+      <c r="D90" s="1">
+        <v>83</v>
+      </c>
+      <c r="E90" s="1">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91" s="2">
+        <f t="shared" si="0"/>
+        <v>9.999999999999999E+188</v>
+      </c>
+      <c r="C91" t="s">
+        <v>94</v>
+      </c>
+      <c r="D91" s="1">
+        <v>83</v>
+      </c>
+      <c r="E91" s="1">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92" s="2">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999987E+189</v>
+      </c>
+      <c r="C92" t="s">
+        <v>95</v>
+      </c>
+      <c r="D92" s="1">
+        <v>83</v>
+      </c>
+      <c r="E92" s="1">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93" s="2">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999991E+190</v>
+      </c>
+      <c r="C93" t="s">
+        <v>96</v>
+      </c>
+      <c r="D93" s="1">
+        <v>83</v>
+      </c>
+      <c r="E93" s="1">
+        <v>1.96</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/ClosedTrainingTable.xlsx
+++ b/Assets/06.Table/ClosedTrainingTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF35142-F67D-41F3-991A-739E2F4E0EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C0AC57-75B0-4224-AA44-A2C7C34E977F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>Id</t>
   </si>
@@ -368,6 +368,22 @@
   </si>
   <si>
     <t>1000동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1멸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10멸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100멸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000멸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -755,11 +771,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E93"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D90" sqref="D90"/>
+      <selection pane="bottomLeft" activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1611,7 +1627,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="2">
-        <f t="shared" ref="B50:B93" si="0">B49*10</f>
+        <f t="shared" ref="B50:B97" si="0">B49*10</f>
         <v>1.0000000000000002E+148</v>
       </c>
       <c r="C50" t="s">
@@ -2396,6 +2412,78 @@
       </c>
       <c r="E93" s="1">
         <v>1.96</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94" s="2">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999991E+191</v>
+      </c>
+      <c r="C94" t="s">
+        <v>97</v>
+      </c>
+      <c r="D94" s="1">
+        <v>83</v>
+      </c>
+      <c r="E94" s="1">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95" s="2">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999986E+192</v>
+      </c>
+      <c r="C95" t="s">
+        <v>98</v>
+      </c>
+      <c r="D95" s="1">
+        <v>83</v>
+      </c>
+      <c r="E95" s="1">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96" s="2">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999978E+193</v>
+      </c>
+      <c r="C96" t="s">
+        <v>99</v>
+      </c>
+      <c r="D96" s="1">
+        <v>83</v>
+      </c>
+      <c r="E96" s="1">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97" s="2">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999985E+194</v>
+      </c>
+      <c r="C97" t="s">
+        <v>100</v>
+      </c>
+      <c r="D97" s="1">
+        <v>83</v>
+      </c>
+      <c r="E97" s="1">
+        <v>2.08</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/ClosedTrainingTable.xlsx
+++ b/Assets/06.Table/ClosedTrainingTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C0AC57-75B0-4224-AA44-A2C7C34E977F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C4349E-EAB4-4687-9DB2-6C16C07DA476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>Id</t>
   </si>
@@ -384,6 +384,38 @@
   </si>
   <si>
     <t>1000멸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1향</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10향</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100향</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000향</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000증</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -771,11 +803,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C93" sqref="C93"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1627,7 +1659,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="2">
-        <f t="shared" ref="B50:B97" si="0">B49*10</f>
+        <f t="shared" ref="B50:B105" si="0">B49*10</f>
         <v>1.0000000000000002E+148</v>
       </c>
       <c r="C50" t="s">
@@ -2484,6 +2516,150 @@
       </c>
       <c r="E97" s="1">
         <v>2.08</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98" s="2">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999995E+195</v>
+      </c>
+      <c r="C98" t="s">
+        <v>101</v>
+      </c>
+      <c r="D98" s="1">
+        <v>83</v>
+      </c>
+      <c r="E98" s="1">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99" s="2">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999995E+196</v>
+      </c>
+      <c r="C99" t="s">
+        <v>102</v>
+      </c>
+      <c r="D99" s="1">
+        <v>83</v>
+      </c>
+      <c r="E99" s="1">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100" s="2">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999988E+197</v>
+      </c>
+      <c r="C100" t="s">
+        <v>103</v>
+      </c>
+      <c r="D100" s="1">
+        <v>83</v>
+      </c>
+      <c r="E100" s="1">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101" s="2">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999988E+198</v>
+      </c>
+      <c r="C101" t="s">
+        <v>104</v>
+      </c>
+      <c r="D101" s="1">
+        <v>83</v>
+      </c>
+      <c r="E101" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102" s="2">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999997E+199</v>
+      </c>
+      <c r="C102" t="s">
+        <v>105</v>
+      </c>
+      <c r="D102" s="1">
+        <v>83</v>
+      </c>
+      <c r="E102" s="1">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103" s="2">
+        <f t="shared" si="0"/>
+        <v>9.999999999999999E+200</v>
+      </c>
+      <c r="C103" t="s">
+        <v>106</v>
+      </c>
+      <c r="D103" s="1">
+        <v>83</v>
+      </c>
+      <c r="E103" s="1">
+        <v>2.2599999999999998</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>102</v>
+      </c>
+      <c r="B104" s="2">
+        <f t="shared" si="0"/>
+        <v>9.999999999999999E+201</v>
+      </c>
+      <c r="C104" t="s">
+        <v>107</v>
+      </c>
+      <c r="D104" s="1">
+        <v>83</v>
+      </c>
+      <c r="E104" s="1">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="B105" s="2">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999999E+202</v>
+      </c>
+      <c r="C105" t="s">
+        <v>108</v>
+      </c>
+      <c r="D105" s="1">
+        <v>83</v>
+      </c>
+      <c r="E105" s="1">
+        <v>2.3199999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/ClosedTrainingTable.xlsx
+++ b/Assets/06.Table/ClosedTrainingTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C4349E-EAB4-4687-9DB2-6C16C07DA476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C6A5FD-40C3-4258-A2DD-F1F2893248BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>Id</t>
   </si>
@@ -416,6 +416,22 @@
   </si>
   <si>
     <t>1000증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1쾌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10쾌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100쾌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000쾌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -803,11 +819,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E105"/>
+  <dimension ref="A1:E109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C105" sqref="C105"/>
+      <selection pane="bottomLeft" activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1659,7 +1675,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="2">
-        <f t="shared" ref="B50:B105" si="0">B49*10</f>
+        <f t="shared" ref="B50:B109" si="0">B49*10</f>
         <v>1.0000000000000002E+148</v>
       </c>
       <c r="C50" t="s">
@@ -2660,6 +2676,78 @@
       </c>
       <c r="E105" s="1">
         <v>2.3199999999999998</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>104</v>
+      </c>
+      <c r="B106" s="2">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999999E+203</v>
+      </c>
+      <c r="C106" t="s">
+        <v>109</v>
+      </c>
+      <c r="D106" s="1">
+        <v>83</v>
+      </c>
+      <c r="E106" s="1">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="B107" s="2">
+        <f t="shared" si="0"/>
+        <v>1E+205</v>
+      </c>
+      <c r="C107" t="s">
+        <v>110</v>
+      </c>
+      <c r="D107" s="1">
+        <v>83</v>
+      </c>
+      <c r="E107" s="1">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108" s="2">
+        <f t="shared" si="0"/>
+        <v>1E+206</v>
+      </c>
+      <c r="C108" t="s">
+        <v>111</v>
+      </c>
+      <c r="D108" s="1">
+        <v>83</v>
+      </c>
+      <c r="E108" s="1">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="B109" s="2">
+        <f t="shared" si="0"/>
+        <v>1E+207</v>
+      </c>
+      <c r="C109" t="s">
+        <v>112</v>
+      </c>
+      <c r="D109" s="1">
+        <v>83</v>
+      </c>
+      <c r="E109" s="1">
+        <v>2.44</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/ClosedTrainingTable.xlsx
+++ b/Assets/06.Table/ClosedTrainingTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C6A5FD-40C3-4258-A2DD-F1F2893248BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36BB1841-4A93-4A33-854A-089006A3DFFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t>Id</t>
   </si>
@@ -432,6 +432,22 @@
   </si>
   <si>
     <t>1000쾌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000우</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -819,11 +835,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E109"/>
+  <dimension ref="A1:E113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C110" sqref="C110"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1675,7 +1691,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="2">
-        <f t="shared" ref="B50:B109" si="0">B49*10</f>
+        <f t="shared" ref="B50:B113" si="0">B49*10</f>
         <v>1.0000000000000002E+148</v>
       </c>
       <c r="C50" t="s">
@@ -2748,6 +2764,78 @@
       </c>
       <c r="E109" s="1">
         <v>2.44</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>108</v>
+      </c>
+      <c r="B110" s="2">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999998E+207</v>
+      </c>
+      <c r="C110" t="s">
+        <v>113</v>
+      </c>
+      <c r="D110" s="1">
+        <v>83</v>
+      </c>
+      <c r="E110" s="1">
+        <v>2.4700000000000002</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>109</v>
+      </c>
+      <c r="B111" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000001E+209</v>
+      </c>
+      <c r="C111" t="s">
+        <v>114</v>
+      </c>
+      <c r="D111" s="1">
+        <v>83</v>
+      </c>
+      <c r="E111" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>110</v>
+      </c>
+      <c r="B112" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000001E+210</v>
+      </c>
+      <c r="C112" t="s">
+        <v>115</v>
+      </c>
+      <c r="D112" s="1">
+        <v>83</v>
+      </c>
+      <c r="E112" s="1">
+        <v>2.5299999999999998</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000001E+211</v>
+      </c>
+      <c r="C113" t="s">
+        <v>116</v>
+      </c>
+      <c r="D113" s="1">
+        <v>83</v>
+      </c>
+      <c r="E113" s="1">
+        <v>2.56</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/ClosedTrainingTable.xlsx
+++ b/Assets/06.Table/ClosedTrainingTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36BB1841-4A93-4A33-854A-089006A3DFFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F596341-F65F-437C-A2C4-D3B26AFCBB47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
   <si>
     <t>Id</t>
   </si>
@@ -448,6 +448,22 @@
   </si>
   <si>
     <t>1000우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1팽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10팽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100팽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000팽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -539,9 +555,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -579,7 +595,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -685,7 +701,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -827,7 +843,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -835,11 +851,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E113"/>
+  <dimension ref="A1:E117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B109" sqref="B109"/>
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E115" sqref="E115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1691,7 +1707,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="2">
-        <f t="shared" ref="B50:B113" si="0">B49*10</f>
+        <f t="shared" ref="B50:B114" si="0">B49*10</f>
         <v>1.0000000000000002E+148</v>
       </c>
       <c r="C50" t="s">
@@ -2836,6 +2852,78 @@
       </c>
       <c r="E113" s="1">
         <v>2.56</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>112</v>
+      </c>
+      <c r="B114" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000001E+212</v>
+      </c>
+      <c r="C114" t="s">
+        <v>117</v>
+      </c>
+      <c r="D114" s="1">
+        <v>83</v>
+      </c>
+      <c r="E114" s="1">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>113</v>
+      </c>
+      <c r="B115" s="2">
+        <f t="shared" ref="B115:B117" si="1">B114*10</f>
+        <v>1.0000000000000001E+213</v>
+      </c>
+      <c r="C115" t="s">
+        <v>118</v>
+      </c>
+      <c r="D115" s="1">
+        <v>83</v>
+      </c>
+      <c r="E115" s="1">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>114</v>
+      </c>
+      <c r="B116" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000002E+214</v>
+      </c>
+      <c r="C116" t="s">
+        <v>119</v>
+      </c>
+      <c r="D116" s="1">
+        <v>83</v>
+      </c>
+      <c r="E116" s="1">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>115</v>
+      </c>
+      <c r="B117" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000001E+215</v>
+      </c>
+      <c r="C117" t="s">
+        <v>120</v>
+      </c>
+      <c r="D117" s="1">
+        <v>83</v>
+      </c>
+      <c r="E117" s="1">
+        <v>2.68</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/ClosedTrainingTable.xlsx
+++ b/Assets/06.Table/ClosedTrainingTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F596341-F65F-437C-A2C4-D3B26AFCBB47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F010AD77-64B9-4929-B7A8-EADA017C05CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
   <si>
     <t>Id</t>
   </si>
@@ -464,6 +464,38 @@
   </si>
   <si>
     <t>1000팽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000한</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -851,11 +883,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E117"/>
+  <dimension ref="A1:E125"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E115" sqref="E115"/>
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C116" sqref="C116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2877,7 +2909,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="2">
-        <f t="shared" ref="B115:B117" si="1">B114*10</f>
+        <f t="shared" ref="B115:B125" si="1">B114*10</f>
         <v>1.0000000000000001E+213</v>
       </c>
       <c r="C115" t="s">
@@ -2924,6 +2956,150 @@
       </c>
       <c r="E117" s="1">
         <v>2.68</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>116</v>
+      </c>
+      <c r="B118" s="2">
+        <f t="shared" si="1"/>
+        <v>1E+216</v>
+      </c>
+      <c r="C118" t="s">
+        <v>121</v>
+      </c>
+      <c r="D118" s="1">
+        <v>83</v>
+      </c>
+      <c r="E118" s="1">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>117</v>
+      </c>
+      <c r="B119" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000001E+217</v>
+      </c>
+      <c r="C119" t="s">
+        <v>122</v>
+      </c>
+      <c r="D119" s="1">
+        <v>83</v>
+      </c>
+      <c r="E119" s="1">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>118</v>
+      </c>
+      <c r="B120" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000001E+218</v>
+      </c>
+      <c r="C120" t="s">
+        <v>123</v>
+      </c>
+      <c r="D120" s="1">
+        <v>83</v>
+      </c>
+      <c r="E120" s="1">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>119</v>
+      </c>
+      <c r="B121" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000001E+219</v>
+      </c>
+      <c r="C121" t="s">
+        <v>124</v>
+      </c>
+      <c r="D121" s="1">
+        <v>83</v>
+      </c>
+      <c r="E121" s="1">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>120</v>
+      </c>
+      <c r="B122" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000001E+220</v>
+      </c>
+      <c r="C122" t="s">
+        <v>125</v>
+      </c>
+      <c r="D122" s="1">
+        <v>83</v>
+      </c>
+      <c r="E122" s="1">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>121</v>
+      </c>
+      <c r="B123" s="2">
+        <f t="shared" si="1"/>
+        <v>1E+221</v>
+      </c>
+      <c r="C123" t="s">
+        <v>126</v>
+      </c>
+      <c r="D123" s="1">
+        <v>83</v>
+      </c>
+      <c r="E123" s="1">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>122</v>
+      </c>
+      <c r="B124" s="2">
+        <f t="shared" si="1"/>
+        <v>1E+222</v>
+      </c>
+      <c r="C124" t="s">
+        <v>127</v>
+      </c>
+      <c r="D124" s="1">
+        <v>83</v>
+      </c>
+      <c r="E124" s="1">
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>123</v>
+      </c>
+      <c r="B125" s="2">
+        <f t="shared" si="1"/>
+        <v>1E+223</v>
+      </c>
+      <c r="C125" t="s">
+        <v>128</v>
+      </c>
+      <c r="D125" s="1">
+        <v>83</v>
+      </c>
+      <c r="E125" s="1">
+        <v>2.92</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/ClosedTrainingTable.xlsx
+++ b/Assets/06.Table/ClosedTrainingTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F010AD77-64B9-4929-B7A8-EADA017C05CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D94FED8-9E22-4E87-8CF0-C65D91EDF485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
   <si>
     <t>Id</t>
   </si>
@@ -496,6 +496,22 @@
   </si>
   <si>
     <t>1000한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1혈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10혈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100혈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000혈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -883,11 +899,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E125"/>
+  <dimension ref="A1:E129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C116" sqref="C116"/>
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C128" sqref="C128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2909,7 +2925,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="2">
-        <f t="shared" ref="B115:B125" si="1">B114*10</f>
+        <f t="shared" ref="B115:B129" si="1">B114*10</f>
         <v>1.0000000000000001E+213</v>
       </c>
       <c r="C115" t="s">
@@ -3100,6 +3116,78 @@
       </c>
       <c r="E125" s="1">
         <v>2.92</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>124</v>
+      </c>
+      <c r="B126" s="2">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999997E+223</v>
+      </c>
+      <c r="C126" t="s">
+        <v>129</v>
+      </c>
+      <c r="D126" s="1">
+        <v>83</v>
+      </c>
+      <c r="E126" s="1">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>125</v>
+      </c>
+      <c r="B127" s="2">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999993E+224</v>
+      </c>
+      <c r="C127" t="s">
+        <v>130</v>
+      </c>
+      <c r="D127" s="1">
+        <v>83</v>
+      </c>
+      <c r="E127" s="1">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>126</v>
+      </c>
+      <c r="B128" s="2">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999996E+225</v>
+      </c>
+      <c r="C128" t="s">
+        <v>131</v>
+      </c>
+      <c r="D128" s="1">
+        <v>83</v>
+      </c>
+      <c r="E128" s="1">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>127</v>
+      </c>
+      <c r="B129" s="2">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999988E+226</v>
+      </c>
+      <c r="C129" t="s">
+        <v>132</v>
+      </c>
+      <c r="D129" s="1">
+        <v>83</v>
+      </c>
+      <c r="E129" s="1">
+        <v>3.04</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/ClosedTrainingTable.xlsx
+++ b/Assets/06.Table/ClosedTrainingTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D94FED8-9E22-4E87-8CF0-C65D91EDF485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F8033E-796E-4323-9396-A54CA0E8F9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
   <si>
     <t>Id</t>
   </si>
@@ -512,6 +512,22 @@
   </si>
   <si>
     <t>1000혈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000연</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -899,11 +915,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E129"/>
+  <dimension ref="A1:E133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C128" sqref="C128"/>
+      <selection pane="bottomLeft" activeCell="C131" sqref="C131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2925,7 +2941,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="2">
-        <f t="shared" ref="B115:B129" si="1">B114*10</f>
+        <f t="shared" ref="B115:B133" si="1">B114*10</f>
         <v>1.0000000000000001E+213</v>
       </c>
       <c r="C115" t="s">
@@ -3188,6 +3204,78 @@
       </c>
       <c r="E129" s="1">
         <v>3.04</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>128</v>
+      </c>
+      <c r="B130" s="2">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999992E+227</v>
+      </c>
+      <c r="C130" t="s">
+        <v>133</v>
+      </c>
+      <c r="D130" s="1">
+        <v>83</v>
+      </c>
+      <c r="E130" s="1">
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>129</v>
+      </c>
+      <c r="B131" s="2">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999999E+228</v>
+      </c>
+      <c r="C131" t="s">
+        <v>134</v>
+      </c>
+      <c r="D131" s="1">
+        <v>83</v>
+      </c>
+      <c r="E131" s="1">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>130</v>
+      </c>
+      <c r="B132" s="2">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999988E+229</v>
+      </c>
+      <c r="C132" t="s">
+        <v>135</v>
+      </c>
+      <c r="D132" s="1">
+        <v>83</v>
+      </c>
+      <c r="E132" s="1">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>131</v>
+      </c>
+      <c r="B133" s="2">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999988E+230</v>
+      </c>
+      <c r="C133" t="s">
+        <v>136</v>
+      </c>
+      <c r="D133" s="1">
+        <v>83</v>
+      </c>
+      <c r="E133" s="1">
+        <v>3.16</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/ClosedTrainingTable.xlsx
+++ b/Assets/06.Table/ClosedTrainingTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F8033E-796E-4323-9396-A54CA0E8F9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8021F5-F827-49FA-8C97-0AAE58B3F80E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
   <si>
     <t>Id</t>
   </si>
@@ -528,6 +528,22 @@
   </si>
   <si>
     <t>1000연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1난</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10난</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100난</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000난</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -915,11 +931,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E133"/>
+  <dimension ref="A1:E137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C131" sqref="C131"/>
+      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C138" sqref="C138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2941,7 +2957,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="2">
-        <f t="shared" ref="B115:B133" si="1">B114*10</f>
+        <f t="shared" ref="B115:B137" si="1">B114*10</f>
         <v>1.0000000000000001E+213</v>
       </c>
       <c r="C115" t="s">
@@ -3276,6 +3292,78 @@
       </c>
       <c r="E133" s="1">
         <v>3.16</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>132</v>
+      </c>
+      <c r="B134" s="2">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999992E+231</v>
+      </c>
+      <c r="C134" t="s">
+        <v>137</v>
+      </c>
+      <c r="D134" s="1">
+        <v>83</v>
+      </c>
+      <c r="E134" s="1">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>133</v>
+      </c>
+      <c r="B135" s="2">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999997E+232</v>
+      </c>
+      <c r="C135" t="s">
+        <v>138</v>
+      </c>
+      <c r="D135" s="1">
+        <v>83</v>
+      </c>
+      <c r="E135" s="1">
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>134</v>
+      </c>
+      <c r="B136" s="2">
+        <f t="shared" si="1"/>
+        <v>1E+234</v>
+      </c>
+      <c r="C136" t="s">
+        <v>139</v>
+      </c>
+      <c r="D136" s="1">
+        <v>83</v>
+      </c>
+      <c r="E136" s="1">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>135</v>
+      </c>
+      <c r="B137" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000001E+235</v>
+      </c>
+      <c r="C137" t="s">
+        <v>140</v>
+      </c>
+      <c r="D137" s="1">
+        <v>83</v>
+      </c>
+      <c r="E137" s="1">
+        <v>3.28</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/ClosedTrainingTable.xlsx
+++ b/Assets/06.Table/ClosedTrainingTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8021F5-F827-49FA-8C97-0AAE58B3F80E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6687AA4-FF45-464B-B482-0B681FD0F227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
   <si>
     <t>Id</t>
   </si>
@@ -544,6 +544,22 @@
   </si>
   <si>
     <t>1000난</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000군</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -931,11 +947,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E137"/>
+  <dimension ref="A1:E141"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C138" sqref="C138"/>
+      <selection pane="bottomLeft" activeCell="C140" sqref="C140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2957,7 +2973,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="2">
-        <f t="shared" ref="B115:B137" si="1">B114*10</f>
+        <f t="shared" ref="B115:B141" si="1">B114*10</f>
         <v>1.0000000000000001E+213</v>
       </c>
       <c r="C115" t="s">
@@ -3364,6 +3380,78 @@
       </c>
       <c r="E137" s="1">
         <v>3.28</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>136</v>
+      </c>
+      <c r="B138" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000001E+236</v>
+      </c>
+      <c r="C138" t="s">
+        <v>141</v>
+      </c>
+      <c r="D138" s="1">
+        <v>83</v>
+      </c>
+      <c r="E138" s="1">
+        <v>3.31</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>137</v>
+      </c>
+      <c r="B139" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000001E+237</v>
+      </c>
+      <c r="C139" t="s">
+        <v>142</v>
+      </c>
+      <c r="D139" s="1">
+        <v>83</v>
+      </c>
+      <c r="E139" s="1">
+        <v>3.34</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>138</v>
+      </c>
+      <c r="B140" s="2">
+        <f t="shared" si="1"/>
+        <v>1E+238</v>
+      </c>
+      <c r="C140" t="s">
+        <v>143</v>
+      </c>
+      <c r="D140" s="1">
+        <v>83</v>
+      </c>
+      <c r="E140" s="1">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>139</v>
+      </c>
+      <c r="B141" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000001E+239</v>
+      </c>
+      <c r="C141" t="s">
+        <v>144</v>
+      </c>
+      <c r="D141" s="1">
+        <v>83</v>
+      </c>
+      <c r="E141" s="1">
+        <v>3.4</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/ClosedTrainingTable.xlsx
+++ b/Assets/06.Table/ClosedTrainingTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6687AA4-FF45-464B-B482-0B681FD0F227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7501F43-BAEE-40EB-9E6E-02DCF1C1C01C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
   <si>
     <t>Id</t>
   </si>
@@ -560,6 +560,22 @@
   </si>
   <si>
     <t>1000군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000결</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -947,11 +963,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E141"/>
+  <dimension ref="A1:E145"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C140" sqref="C140"/>
+      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C146" sqref="C146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2973,7 +2989,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="2">
-        <f t="shared" ref="B115:B141" si="1">B114*10</f>
+        <f t="shared" ref="B115:B145" si="1">B114*10</f>
         <v>1.0000000000000001E+213</v>
       </c>
       <c r="C115" t="s">
@@ -3452,6 +3468,78 @@
       </c>
       <c r="E141" s="1">
         <v>3.4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>140</v>
+      </c>
+      <c r="B142" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000002E+240</v>
+      </c>
+      <c r="C142" t="s">
+        <v>145</v>
+      </c>
+      <c r="D142" s="1">
+        <v>83</v>
+      </c>
+      <c r="E142" s="1">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>141</v>
+      </c>
+      <c r="B143" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000002E+241</v>
+      </c>
+      <c r="C143" t="s">
+        <v>146</v>
+      </c>
+      <c r="D143" s="1">
+        <v>83</v>
+      </c>
+      <c r="E143" s="1">
+        <v>3.46</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>142</v>
+      </c>
+      <c r="B144" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000002E+242</v>
+      </c>
+      <c r="C144" t="s">
+        <v>147</v>
+      </c>
+      <c r="D144" s="1">
+        <v>83</v>
+      </c>
+      <c r="E144" s="1">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>143</v>
+      </c>
+      <c r="B145" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000001E+243</v>
+      </c>
+      <c r="C145" t="s">
+        <v>148</v>
+      </c>
+      <c r="D145" s="1">
+        <v>83</v>
+      </c>
+      <c r="E145" s="1">
+        <v>3.52</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/ClosedTrainingTable.xlsx
+++ b/Assets/06.Table/ClosedTrainingTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7501F43-BAEE-40EB-9E6E-02DCF1C1C01C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37312D71-C7E5-410B-A097-E1E266C18BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
   <si>
     <t>Id</t>
   </si>
@@ -576,6 +576,22 @@
   </si>
   <si>
     <t>1000결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1맥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10맥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100맥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000맥</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -963,10 +979,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E145"/>
+  <dimension ref="A1:E149"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C146" sqref="C146"/>
     </sheetView>
   </sheetViews>
@@ -2989,7 +3005,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="2">
-        <f t="shared" ref="B115:B145" si="1">B114*10</f>
+        <f t="shared" ref="B115:B149" si="1">B114*10</f>
         <v>1.0000000000000001E+213</v>
       </c>
       <c r="C115" t="s">
@@ -3540,6 +3556,78 @@
       </c>
       <c r="E145" s="1">
         <v>3.52</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>144</v>
+      </c>
+      <c r="B146" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000001E+244</v>
+      </c>
+      <c r="C146" t="s">
+        <v>149</v>
+      </c>
+      <c r="D146" s="1">
+        <v>83</v>
+      </c>
+      <c r="E146" s="1">
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>145</v>
+      </c>
+      <c r="B147" s="2">
+        <f t="shared" si="1"/>
+        <v>1E+245</v>
+      </c>
+      <c r="C147" t="s">
+        <v>150</v>
+      </c>
+      <c r="D147" s="1">
+        <v>83</v>
+      </c>
+      <c r="E147" s="1">
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>146</v>
+      </c>
+      <c r="B148" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000001E+246</v>
+      </c>
+      <c r="C148" t="s">
+        <v>151</v>
+      </c>
+      <c r="D148" s="1">
+        <v>83</v>
+      </c>
+      <c r="E148" s="1">
+        <v>3.61</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>147</v>
+      </c>
+      <c r="B149" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000001E+247</v>
+      </c>
+      <c r="C149" t="s">
+        <v>152</v>
+      </c>
+      <c r="D149" s="1">
+        <v>83</v>
+      </c>
+      <c r="E149" s="1">
+        <v>3.64</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/ClosedTrainingTable.xlsx
+++ b/Assets/06.Table/ClosedTrainingTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37312D71-C7E5-410B-A097-E1E266C18BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B17103-99C5-44BE-9512-7CCAE522337C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
   <si>
     <t>Id</t>
   </si>
@@ -592,6 +592,22 @@
   </si>
   <si>
     <t>1000맥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000토</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -979,11 +995,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E149"/>
+  <dimension ref="A1:E153"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C146" sqref="C146"/>
+      <selection pane="bottomLeft" activeCell="C150" sqref="C150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3005,7 +3021,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="2">
-        <f t="shared" ref="B115:B149" si="1">B114*10</f>
+        <f t="shared" ref="B115:B153" si="1">B114*10</f>
         <v>1.0000000000000001E+213</v>
       </c>
       <c r="C115" t="s">
@@ -3628,6 +3644,78 @@
       </c>
       <c r="E149" s="1">
         <v>3.64</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>148</v>
+      </c>
+      <c r="B150" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000002E+248</v>
+      </c>
+      <c r="C150" t="s">
+        <v>153</v>
+      </c>
+      <c r="D150" s="1">
+        <v>83</v>
+      </c>
+      <c r="E150" s="1">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>149</v>
+      </c>
+      <c r="B151" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000001E+249</v>
+      </c>
+      <c r="C151" t="s">
+        <v>154</v>
+      </c>
+      <c r="D151" s="1">
+        <v>83</v>
+      </c>
+      <c r="E151" s="1">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>150</v>
+      </c>
+      <c r="B152" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000001E+250</v>
+      </c>
+      <c r="C152" t="s">
+        <v>155</v>
+      </c>
+      <c r="D152" s="1">
+        <v>83</v>
+      </c>
+      <c r="E152" s="1">
+        <v>3.73</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>151</v>
+      </c>
+      <c r="B153" s="2">
+        <f t="shared" si="1"/>
+        <v>1E+251</v>
+      </c>
+      <c r="C153" t="s">
+        <v>156</v>
+      </c>
+      <c r="D153" s="1">
+        <v>83</v>
+      </c>
+      <c r="E153" s="1">
+        <v>3.76</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/ClosedTrainingTable.xlsx
+++ b/Assets/06.Table/ClosedTrainingTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B17103-99C5-44BE-9512-7CCAE522337C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFDBFE62-7372-4128-A3BE-210E0D0E7AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="161">
   <si>
     <t>Id</t>
   </si>
@@ -608,6 +608,22 @@
   </si>
   <si>
     <t>1000토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000산</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -995,11 +1011,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E153"/>
+  <dimension ref="A1:E157"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C150" sqref="C150"/>
+      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C154" sqref="C154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3021,7 +3037,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="2">
-        <f t="shared" ref="B115:B153" si="1">B114*10</f>
+        <f t="shared" ref="B115:B157" si="1">B114*10</f>
         <v>1.0000000000000001E+213</v>
       </c>
       <c r="C115" t="s">
@@ -3716,6 +3732,78 @@
       </c>
       <c r="E153" s="1">
         <v>3.76</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>152</v>
+      </c>
+      <c r="B154" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000001E+252</v>
+      </c>
+      <c r="C154" t="s">
+        <v>157</v>
+      </c>
+      <c r="D154" s="1">
+        <v>83</v>
+      </c>
+      <c r="E154" s="1">
+        <v>3.79</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>153</v>
+      </c>
+      <c r="B155" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000001E+253</v>
+      </c>
+      <c r="C155" t="s">
+        <v>158</v>
+      </c>
+      <c r="D155" s="1">
+        <v>83</v>
+      </c>
+      <c r="E155" s="1">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>154</v>
+      </c>
+      <c r="B156" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000001E+254</v>
+      </c>
+      <c r="C156" t="s">
+        <v>159</v>
+      </c>
+      <c r="D156" s="1">
+        <v>83</v>
+      </c>
+      <c r="E156" s="1">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>155</v>
+      </c>
+      <c r="B157" s="2">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999999E+254</v>
+      </c>
+      <c r="C157" t="s">
+        <v>160</v>
+      </c>
+      <c r="D157" s="1">
+        <v>83</v>
+      </c>
+      <c r="E157" s="1">
+        <v>3.88</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/ClosedTrainingTable.xlsx
+++ b/Assets/06.Table/ClosedTrainingTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFDBFE62-7372-4128-A3BE-210E0D0E7AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3025562E-877C-4B9D-9C55-4C13ADC6977F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="173">
   <si>
     <t>Id</t>
   </si>
@@ -624,6 +624,54 @@
   </si>
   <si>
     <t>1000산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000종</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1011,11 +1059,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E157"/>
+  <dimension ref="A1:E169"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C154" sqref="C154"/>
+      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C159" sqref="C159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3037,7 +3085,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="2">
-        <f t="shared" ref="B115:B157" si="1">B114*10</f>
+        <f t="shared" ref="B115:B169" si="1">B114*10</f>
         <v>1.0000000000000001E+213</v>
       </c>
       <c r="C115" t="s">
@@ -3804,6 +3852,222 @@
       </c>
       <c r="E157" s="1">
         <v>3.88</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>156</v>
+      </c>
+      <c r="B158" s="2">
+        <f t="shared" si="1"/>
+        <v>1E+256</v>
+      </c>
+      <c r="C158" t="s">
+        <v>161</v>
+      </c>
+      <c r="D158" s="1">
+        <v>83</v>
+      </c>
+      <c r="E158" s="1">
+        <v>3.91</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>157</v>
+      </c>
+      <c r="B159" s="2">
+        <f t="shared" si="1"/>
+        <v>1E+257</v>
+      </c>
+      <c r="C159" t="s">
+        <v>162</v>
+      </c>
+      <c r="D159" s="1">
+        <v>83</v>
+      </c>
+      <c r="E159" s="1">
+        <v>3.94</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>158</v>
+      </c>
+      <c r="B160" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000001E+258</v>
+      </c>
+      <c r="C160" t="s">
+        <v>163</v>
+      </c>
+      <c r="D160" s="1">
+        <v>83</v>
+      </c>
+      <c r="E160" s="1">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>159</v>
+      </c>
+      <c r="B161" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000001E+259</v>
+      </c>
+      <c r="C161" t="s">
+        <v>164</v>
+      </c>
+      <c r="D161" s="1">
+        <v>83</v>
+      </c>
+      <c r="E161" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>160</v>
+      </c>
+      <c r="B162" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000001E+260</v>
+      </c>
+      <c r="C162" t="s">
+        <v>165</v>
+      </c>
+      <c r="D162" s="1">
+        <v>83</v>
+      </c>
+      <c r="E162" s="1">
+        <v>4.03</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>161</v>
+      </c>
+      <c r="B163" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000001E+261</v>
+      </c>
+      <c r="C163" t="s">
+        <v>166</v>
+      </c>
+      <c r="D163" s="1">
+        <v>83</v>
+      </c>
+      <c r="E163" s="1">
+        <v>4.0599999999999996</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>162</v>
+      </c>
+      <c r="B164" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000002E+262</v>
+      </c>
+      <c r="C164" t="s">
+        <v>167</v>
+      </c>
+      <c r="D164" s="1">
+        <v>83</v>
+      </c>
+      <c r="E164" s="1">
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>163</v>
+      </c>
+      <c r="B165" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000002E+263</v>
+      </c>
+      <c r="C165" t="s">
+        <v>168</v>
+      </c>
+      <c r="D165" s="1">
+        <v>83</v>
+      </c>
+      <c r="E165" s="1">
+        <v>4.12</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>164</v>
+      </c>
+      <c r="B166" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000002E+264</v>
+      </c>
+      <c r="C166" t="s">
+        <v>169</v>
+      </c>
+      <c r="D166" s="1">
+        <v>83</v>
+      </c>
+      <c r="E166" s="1">
+        <v>4.1500000000000004</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>165</v>
+      </c>
+      <c r="B167" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000002E+265</v>
+      </c>
+      <c r="C167" t="s">
+        <v>170</v>
+      </c>
+      <c r="D167" s="1">
+        <v>83</v>
+      </c>
+      <c r="E167" s="1">
+        <v>4.18</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>166</v>
+      </c>
+      <c r="B168" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000003E+266</v>
+      </c>
+      <c r="C168" t="s">
+        <v>171</v>
+      </c>
+      <c r="D168" s="1">
+        <v>83</v>
+      </c>
+      <c r="E168" s="1">
+        <v>4.21</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>167</v>
+      </c>
+      <c r="B169" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000003E+267</v>
+      </c>
+      <c r="C169" t="s">
+        <v>172</v>
+      </c>
+      <c r="D169" s="1">
+        <v>83</v>
+      </c>
+      <c r="E169" s="1">
+        <v>4.24</v>
       </c>
     </row>
   </sheetData>
